--- a/biology/Médecine/Friedrich_Benjamin_Osiander/Friedrich_Benjamin_Osiander.xlsx
+++ b/biology/Médecine/Friedrich_Benjamin_Osiander/Friedrich_Benjamin_Osiander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Benjamin Osiander, né le 9 février 1759, Zell unter Aichelberg et mort le 25 mai 1822, Göttingen, Royaume de Hanovre, était un obstétricien en exercice à Göttingen ayant inventé les forceps, instruments d'extraction du fœtus. Il est le père de l'obstétricien, Johann Friedrich Osiander (de).
-Il a étudié la médecine à l'Université de Tübingen et, après avoir obtenu son diplôme, en 1779, il s'est installé comme médecin généraliste à Kirchheim unter Teck. En 1792, il est devenu professeur agrégé en obstétrique à l'Université de Göttingen[1].
+Il a étudié la médecine à l'Université de Tübingen et, après avoir obtenu son diplôme, en 1779, il s'est installé comme médecin généraliste à Kirchheim unter Teck. En 1792, il est devenu professeur agrégé en obstétrique à l'Université de Göttingen.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Principaux travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Lehrbuch der Hebammenkunst: sowohl zum Unterricht angehender Hebamen als zum Lesebuch für jede Mutter, 1796 - Manuel de Maïeutique
 (de) Neue Denkwürdigkeiten für Aerzte und Geburtshelfer, 1797 - Mémorandum pour médecins et obstétriciens
-(de) Handbuch der Entbindungskunst, 1818 - Manuel d'obstétrique[2]</t>
+(de) Handbuch der Entbindungskunst, 1818 - Manuel d'obstétrique</t>
         </is>
       </c>
     </row>
